--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H2">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I2">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J2">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.440362666666666</v>
+        <v>1.684857333333333</v>
       </c>
       <c r="N2">
-        <v>13.321088</v>
+        <v>5.054572</v>
       </c>
       <c r="O2">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="P2">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="Q2">
-        <v>0.1845799555697777</v>
+        <v>0.3256290070986667</v>
       </c>
       <c r="R2">
-        <v>1.661219600128</v>
+        <v>2.930661063888</v>
       </c>
       <c r="S2">
-        <v>0.00193269323211854</v>
+        <v>0.00362985495779095</v>
       </c>
       <c r="T2">
-        <v>0.00193269323211854</v>
+        <v>0.003629854957790949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H3">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I3">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J3">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>138.05125</v>
       </c>
       <c r="O3">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="P3">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="Q3">
-        <v>1.912868798055556</v>
+        <v>8.893629661666667</v>
       </c>
       <c r="R3">
-        <v>17.2158191825</v>
+        <v>80.042666955</v>
       </c>
       <c r="S3">
-        <v>0.02002919855799351</v>
+        <v>0.09913915841771329</v>
       </c>
       <c r="T3">
-        <v>0.02002919855799351</v>
+        <v>0.09913915841771327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H4">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I4">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J4">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.311397666666667</v>
+        <v>8.323787333333334</v>
       </c>
       <c r="N4">
-        <v>12.934193</v>
+        <v>24.971362</v>
       </c>
       <c r="O4">
-        <v>0.07871989580255943</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="P4">
-        <v>0.07871989580255942</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="Q4">
-        <v>0.1792190524731111</v>
+        <v>1.608721730338667</v>
       </c>
       <c r="R4">
-        <v>1.612971472258</v>
+        <v>14.478495573048</v>
       </c>
       <c r="S4">
-        <v>0.001876560478694759</v>
+        <v>0.01793275912549916</v>
       </c>
       <c r="T4">
-        <v>0.001876560478694758</v>
+        <v>0.01793275912549916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.654123</v>
       </c>
       <c r="I5">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J5">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.440362666666666</v>
+        <v>1.684857333333333</v>
       </c>
       <c r="N5">
-        <v>13.321088</v>
+        <v>5.054572</v>
       </c>
       <c r="O5">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="P5">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="Q5">
-        <v>5.408543782869334</v>
+        <v>2.052225311150667</v>
       </c>
       <c r="R5">
-        <v>48.676894045824</v>
+        <v>18.470027800356</v>
       </c>
       <c r="S5">
-        <v>0.05663158782599632</v>
+        <v>0.02287658672228536</v>
       </c>
       <c r="T5">
-        <v>0.05663158782599632</v>
+        <v>0.02287658672228536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.654123</v>
       </c>
       <c r="I6">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J6">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>138.05125</v>
       </c>
       <c r="O6">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="P6">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="Q6">
         <v>56.05069420041668</v>
@@ -818,10 +818,10 @@
         <v>504.45624780375</v>
       </c>
       <c r="S6">
-        <v>0.5868936147605643</v>
+        <v>0.6248088646763558</v>
       </c>
       <c r="T6">
-        <v>0.5868936147605643</v>
+        <v>0.6248088646763557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.654123</v>
       </c>
       <c r="I7">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J7">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.311397666666667</v>
+        <v>8.323787333333334</v>
       </c>
       <c r="N7">
-        <v>12.934193</v>
+        <v>24.971362</v>
       </c>
       <c r="O7">
-        <v>0.07871989580255943</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="P7">
-        <v>0.07871989580255942</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="Q7">
-        <v>5.251459125304335</v>
+        <v>10.13871424728067</v>
       </c>
       <c r="R7">
-        <v>47.26313212773901</v>
+        <v>91.248428225526</v>
       </c>
       <c r="S7">
-        <v>0.0549867913820468</v>
+        <v>0.1130183778896772</v>
       </c>
       <c r="T7">
-        <v>0.05498679138204679</v>
+        <v>0.1130183778896771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H8">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I8">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J8">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.440362666666666</v>
+        <v>1.684857333333333</v>
       </c>
       <c r="N8">
-        <v>13.321088</v>
+        <v>5.054572</v>
       </c>
       <c r="O8">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="P8">
-        <v>0.08107461047911722</v>
+        <v>0.03007292173576635</v>
       </c>
       <c r="Q8">
-        <v>2.149826747121777</v>
+        <v>0.3199437368368889</v>
       </c>
       <c r="R8">
-        <v>19.348440724096</v>
+        <v>2.879493631532</v>
       </c>
       <c r="S8">
-        <v>0.02251032942100236</v>
+        <v>0.003566480055690037</v>
       </c>
       <c r="T8">
-        <v>0.02251032942100236</v>
+        <v>0.003566480055690037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H9">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I9">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J9">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>138.05125</v>
       </c>
       <c r="O9">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="P9">
-        <v>0.8402054937183234</v>
+        <v>0.8213562764116752</v>
       </c>
       <c r="Q9">
-        <v>22.27943165930556</v>
+        <v>8.738352683472224</v>
       </c>
       <c r="R9">
-        <v>200.51488493375</v>
+        <v>78.64517415125</v>
       </c>
       <c r="S9">
-        <v>0.2332826803997655</v>
+        <v>0.09740825331760616</v>
       </c>
       <c r="T9">
-        <v>0.2332826803997655</v>
+        <v>0.09740825331760616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H10">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I10">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J10">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.311397666666667</v>
+        <v>8.323787333333334</v>
       </c>
       <c r="N10">
-        <v>12.934193</v>
+        <v>24.971362</v>
       </c>
       <c r="O10">
-        <v>0.07871989580255943</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="P10">
-        <v>0.07871989580255942</v>
+        <v>0.1485708018525584</v>
       </c>
       <c r="Q10">
-        <v>2.087387611570111</v>
+        <v>1.580634497280222</v>
       </c>
       <c r="R10">
-        <v>18.786488504131</v>
+        <v>14.225710475522</v>
       </c>
       <c r="S10">
-        <v>0.02185654394181788</v>
+        <v>0.01761966483738209</v>
       </c>
       <c r="T10">
-        <v>0.02185654394181787</v>
+        <v>0.01761966483738209</v>
       </c>
     </row>
   </sheetData>
